--- a/Probabilidades condicionales y marginales.xlsx
+++ b/Probabilidades condicionales y marginales.xlsx
@@ -5,11 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="ejercicio" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Hoja4" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Independencia" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Hoja6" sheetId="6" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t xml:space="preserve">Poblacion</t>
   </si>
@@ -216,17 +220,164 @@
   <si>
     <t xml:space="preserve">P(fuma)P(cancer/fuma</t>
   </si>
+  <si>
+    <t xml:space="preserve">P(A/D₂ )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(B/D₂ )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(C/D₂ )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(D/D₂ )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(D₂/A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(D₂/B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(D₂/C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(D₂/D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(dado1: 6  / dado2: 6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(dado1 = 6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventos idenpendientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definicion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(A / B)  = P(A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventos independientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F₁ faller el motor1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(F₁ /F₂) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(F₁)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F₂ : falle el motor 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(dado1 = 6 ∩ dado2 = 6) = P(dado1 = 6) P(dado2 = 6) = 1/6 * 1/6 = 1/36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independencia</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF55308D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">P(A/B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">= P(A)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF55308D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">P(A ∩ B) / P(B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = P(A)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">P(A ∩ B) = P(A) P(B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Paulo, New York, Santiago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,01 * 0,01, 0,01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mujer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No deporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El deporte y el genero son independientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(deporte/hombre)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(deporte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(deporte/mujer)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -270,6 +421,36 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF81D41A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFBF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF55308D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -338,7 +519,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,6 +570,46 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -444,8 +665,8 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -456,7 +677,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF55308D"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -576,8 +797,8 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1060,4 +1281,606 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:I19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>270</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="13" t="n">
+        <f aca="false">F2/$F$6</f>
+        <v>0.072992700729927</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>85</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="14" t="n">
+        <f aca="false">F3/$F$6</f>
+        <v>0.182481751824818</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>600</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="15" t="n">
+        <f aca="false">F4/$F$6</f>
+        <v>0.72992700729927</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="13" t="n">
+        <f aca="false">F5/$F$6</f>
+        <v>0.0145985401459854</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="16" t="n">
+        <f aca="false">SUM(F2:F5)</f>
+        <v>137</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="17"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="17"/>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="17"/>
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>270</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="16" t="n">
+        <f aca="false">SUM(D10:F10)</f>
+        <v>300</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="13" t="n">
+        <f aca="false">F10/G10</f>
+        <v>0.0333333333333333</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="17"/>
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>85</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="G11" s="16" t="n">
+        <f aca="false">SUM(D11:F11)</f>
+        <v>150</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="18" t="n">
+        <f aca="false">F11/G11</f>
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="17"/>
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>600</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" s="16" t="n">
+        <f aca="false">SUM(D12:F12)</f>
+        <v>900</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="14" t="n">
+        <f aca="false">F12/G12</f>
+        <v>0.111111111111111</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="17"/>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="16" t="n">
+        <f aca="false">SUM(D13:F13)</f>
+        <v>42</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="13" t="n">
+        <f aca="false">F13/G13</f>
+        <v>0.0476190476190476</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">G10/SUM($G$10:$G$13)</f>
+        <v>0.21551724137931</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">G11/SUM($G$10:$G$13)</f>
+        <v>0.107758620689655</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">G12/SUM($G$10:$G$13)</f>
+        <v>0.646551724137931</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">G13/SUM($G$10:$G$13)</f>
+        <v>0.0301724137931035</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C3:J24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="60.29"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="21" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <f aca="false">SUM(C3:D3)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <f aca="false">SUM(C4:D4)</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>500</v>
+      </c>
+      <c r="E5" s="22" t="n">
+        <f aca="false">SUM(E3:E4)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1" t="n">
+        <f aca="false">40/100</f>
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <f aca="false">E3/E5</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>